--- a/datasets_no_img_data/runs/detect/yolos_val/yolo8s_results.xlsx
+++ b/datasets_no_img_data/runs/detect/yolos_val/yolo8s_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaou\Desktop\Classes\7643 - Deep Learning\Real-Time-Flying-Object-Detection\datasets_no_img_data\runs\detect\val3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaou\Desktop\Classes\7643 - Deep Learning\Real-Time-Flying-Object-Detection\datasets_no_img_data\runs\detect\yolos_val\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E69EB1-90EE-47D5-9E0E-4985B2E3C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B76623B-6E1B-4437-B398-252F6B77291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D568D0E-D669-4995-90BF-4B162135926F}"/>
+    <workbookView xWindow="3735" yWindow="900" windowWidth="21600" windowHeight="11295" xr2:uid="{2D568D0E-D669-4995-90BF-4B162135926F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Class</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>Speed: 0.2ms preprocess, 4.1ms inference, 0.0ms loss, 1.1ms postprocess per image</t>
+  </si>
+  <si>
+    <t>Speed: 0.2ms preprocess, 2.2ms inference, 0.0ms loss, 1.2ms postprocess per image</t>
   </si>
 </sst>
 </file>
@@ -531,15 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C758C0DD-50A9-40A9-A257-36F33A3DFDED}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="P34:Q34"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -584,8 +601,14 @@
       <c r="G2">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -607,8 +630,14 @@
       <c r="G3">
         <v>0.57499999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -631,7 +660,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -654,7 +683,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -677,7 +706,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -700,7 +729,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -723,7 +752,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -746,7 +775,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -769,7 +798,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -792,7 +821,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -815,7 +844,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -838,7 +867,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -861,7 +890,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -884,7 +913,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
